--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2202901A-9768-494E-B8CA-6BC2556319FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{129C47DA-A2F8-4420-A4A7-215E4AAA2A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8004" windowHeight="7488" xr2:uid="{6A0ECD07-3693-4DEC-BFCA-3C85C841E92C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9156" windowHeight="7464" xr2:uid="{6A0ECD07-3693-4DEC-BFCA-3C85C841E92C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
@@ -81,10 +81,13 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>Astha@gmail.com</t>
+  </si>
+  <si>
+    <t>astha123</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,10 +522,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -547,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,7 +577,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C9BF1739-1778-479D-B109-C5741783D317}"/>
+    <hyperlink ref="B2" r:id="rId1" display="test@123" xr:uid="{C9BF1739-1778-479D-B109-C5741783D317}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{172130F2-2537-4349-AFAE-D2756B1879B2}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{D2235EF8-4146-4C2B-BAC4-D68985D26011}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{EB2FA672-9329-41B7-B83E-887BFC75675D}"/>
